--- a/Project1Rubric_Hudson.xlsx
+++ b/Project1Rubric_Hudson.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rough Draft (30 pts)" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Very effective page!</t>
+  </si>
+  <si>
+    <t>You have some inline style tags, such as on line 101: style="width:150px;height:150px;border:0;".  All styles should be applied with your internal style sheet  (lines 6-47).</t>
+  </si>
+  <si>
+    <t>39/40</t>
   </si>
 </sst>
 </file>
@@ -635,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F995"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -14713,8 +14719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F997"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14725,7 +14731,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -14828,7 +14836,7 @@
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -14845,7 +14853,7 @@
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -14862,7 +14870,7 @@
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -14879,7 +14887,7 @@
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -14892,14 +14900,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="12" t="s">
@@ -14908,15 +14916,18 @@
       <c r="E17" s="12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F17" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -14925,91 +14936,91 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
